--- a/PlaylistCreator/BotCredentials.xlsx
+++ b/PlaylistCreator/BotCredentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura-elena.olaru/Downloads/RPA/PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\RPA\ProiectRPA\YoutubePlaylistCreator\PlaylistCreator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E84D9C-B853-664A-9127-B612714ED7FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B729677A-343F-428B-BA35-7FAC56A844B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F553DFA0-E850-A44A-B93E-25FD1F1517C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F553DFA0-E850-A44A-B93E-25FD1F1517C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,21 +397,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F5767-2BFA-6340-8D8A-75D2D8242A01}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/PlaylistCreator/BotCredentials.xlsx
+++ b/PlaylistCreator/BotCredentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\RPA\ProiectRPA\YoutubePlaylistCreator\PlaylistCreator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura-elena.olaru/Downloads/RPA/GIT/YoutubePlaylistCreator/PlaylistCreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B729677A-343F-428B-BA35-7FAC56A844B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F87E1F-5D7E-8D4A-93C7-27CDD457CBFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F553DFA0-E850-A44A-B93E-25FD1F1517C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{F553DFA0-E850-A44A-B93E-25FD1F1517C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,19 +397,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F5767-2BFA-6340-8D8A-75D2D8242A01}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
